--- a/lets_mail/test-data/test.xlsx
+++ b/lets_mail/test-data/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-projects\flutter2\lets-mail\lets_mail\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63C0B2C-B02D-4D96-B05E-0847A54F6D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DF2C82-0B13-43F4-BFE3-C797D4463A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
     <t>Robin</t>
   </si>
   <si>
-    <t>bakjrb@gmail.com</t>
+    <t>Jrb</t>
   </si>
   <si>
-    <t>Jrb</t>
+    <t>j.bakkerus27121@kpnmail.nl</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -364,10 +364,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,7 +684,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{50FEB0B9-998F-4E11-88A3-40DC907378CC}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{400C9348-D07C-4FC1-B694-ADC57A539481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
